--- a/Twitter LBO Model.xlsx
+++ b/Twitter LBO Model.xlsx
@@ -1912,7 +1912,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="289">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2427,7 +2427,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="9" fontId="9" fillId="5" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="184" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="185" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -2483,7 +2485,11 @@
     <xf numFmtId="9" fontId="14" fillId="5" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="37" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="37" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2920,8 +2926,8 @@
   <sheetPr/>
   <dimension ref="A2:N209"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A182" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6666666666667" defaultRowHeight="14.4"/>
@@ -3188,9 +3194,6 @@
         <v>53.9807451608564</v>
       </c>
     </row>
-    <row r="26" customFormat="1" spans="1:1">
-      <c r="A26" s="151"/>
-    </row>
     <row r="28" customFormat="1" ht="15" customHeight="1" spans="1:12">
       <c r="A28" s="151"/>
       <c r="B28" s="154" t="s">
@@ -3478,7 +3481,10 @@
         <f>$D44/$D$51*$E$51</f>
         <v>0.3171295736076</v>
       </c>
-      <c r="F44" s="165"/>
+      <c r="F44" s="184">
+        <f>D44/$D$51</f>
+        <v>0.0100304351085193</v>
+      </c>
       <c r="H44" t="s">
         <v>49</v>
       </c>
@@ -3490,7 +3496,10 @@
         <f>(I44/$I$51)*$J$51</f>
         <v>28.7273893205782</v>
       </c>
-      <c r="K44" s="165"/>
+      <c r="K44" s="184">
+        <f>I44/$I$51</f>
+        <v>0.908613508161089</v>
+      </c>
     </row>
     <row r="45" customFormat="1" spans="1:11">
       <c r="A45" s="151"/>
@@ -3504,7 +3513,10 @@
         <f t="shared" ref="E45:E48" si="1">$D45/$D$51*$E$51</f>
         <v>6.0254618985444</v>
       </c>
-      <c r="F45" s="184"/>
+      <c r="F45" s="184">
+        <f>D45/$D$51</f>
+        <v>0.190578267061867</v>
+      </c>
       <c r="H45" t="s">
         <v>50</v>
       </c>
@@ -3515,7 +3527,10 @@
         <f>(I45/$I$51)*$J$51</f>
         <v>2.72097174155321</v>
       </c>
-      <c r="K45" s="184"/>
+      <c r="K45" s="184">
+        <f>I45/$I$51</f>
+        <v>0.0860611332310959</v>
+      </c>
     </row>
     <row r="46" customFormat="1" spans="1:11">
       <c r="A46" s="151"/>
@@ -3529,7 +3544,10 @@
         <f t="shared" si="1"/>
         <v>7.92823934018999</v>
       </c>
-      <c r="F46" s="184"/>
+      <c r="F46" s="184">
+        <f>D46/$D$51</f>
+        <v>0.250760877712983</v>
+      </c>
       <c r="H46" t="s">
         <v>51</v>
       </c>
@@ -3540,7 +3558,10 @@
         <f>(I46/$I$51)*$J$51</f>
         <v>0.0792823934018999</v>
       </c>
-      <c r="K46" s="184"/>
+      <c r="K46" s="212">
+        <f>I46/$I$51</f>
+        <v>0.00250760877712983</v>
+      </c>
     </row>
     <row r="47" customFormat="1" spans="1:11">
       <c r="A47" s="151"/>
@@ -3554,7 +3575,10 @@
         <f t="shared" si="1"/>
         <v>1.9027774416456</v>
       </c>
-      <c r="F47" s="184"/>
+      <c r="F47" s="184">
+        <f>D47/$D$51</f>
+        <v>0.060182610651116</v>
+      </c>
       <c r="H47" t="s">
         <v>52</v>
       </c>
@@ -3565,7 +3589,10 @@
         <f>(I47/$I$51)*$J$51</f>
         <v>0.0890880398178469</v>
       </c>
-      <c r="K47" s="184"/>
+      <c r="K47" s="212">
+        <f>I47/$I$51</f>
+        <v>0.00281774983068525</v>
+      </c>
     </row>
     <row r="48" customFormat="1" spans="1:11">
       <c r="A48" s="151"/>
@@ -3579,10 +3606,13 @@
         <f t="shared" si="1"/>
         <v>0.99539362045659</v>
       </c>
-      <c r="F48" s="184"/>
-      <c r="I48" s="212"/>
+      <c r="F48" s="184">
+        <f>D48/$D$51</f>
+        <v>0.0314831285012162</v>
+      </c>
+      <c r="I48" s="213"/>
       <c r="J48" s="168"/>
-      <c r="K48" s="184"/>
+      <c r="K48" s="214"/>
     </row>
     <row r="49" customFormat="1" spans="1:11">
       <c r="A49" s="151"/>
@@ -3597,10 +3627,13 @@
         <f>E51-SUM(E45:E48)</f>
         <v>14.7648591945146</v>
       </c>
-      <c r="F49" s="184"/>
-      <c r="I49" s="213"/>
+      <c r="F49" s="184">
+        <f>D49/$D$51</f>
+        <v>0.466995116072817</v>
+      </c>
+      <c r="I49" s="215"/>
       <c r="J49" s="168"/>
-      <c r="K49" s="184"/>
+      <c r="K49" s="214"/>
     </row>
     <row r="50" ht="5" customHeight="1"/>
     <row r="51" customFormat="1" spans="1:11">
@@ -4044,10 +4077,10 @@
     </row>
     <row r="69" customFormat="1" spans="1:7">
       <c r="A69" s="151"/>
-      <c r="D69" s="214"/>
-      <c r="E69" s="214"/>
-      <c r="F69" s="214"/>
-      <c r="G69" s="215"/>
+      <c r="D69" s="216"/>
+      <c r="E69" s="216"/>
+      <c r="F69" s="216"/>
+      <c r="G69" s="217"/>
     </row>
     <row r="70" customFormat="1" spans="1:12">
       <c r="A70" s="151"/>
@@ -4064,7 +4097,7 @@
         <f>'IS 2021 10K'!D8</f>
         <v>765701</v>
       </c>
-      <c r="G70" s="215">
+      <c r="G70" s="217">
         <v>0</v>
       </c>
       <c r="H70">
@@ -4085,93 +4118,93 @@
     </row>
     <row r="71" customFormat="1" spans="1:7">
       <c r="A71" s="151"/>
-      <c r="D71" s="214"/>
-      <c r="E71" s="214"/>
-      <c r="F71" s="214"/>
-      <c r="G71" s="215"/>
+      <c r="D71" s="216"/>
+      <c r="E71" s="216"/>
+      <c r="F71" s="216"/>
+      <c r="G71" s="217"/>
     </row>
     <row r="72" customFormat="1" spans="1:12">
       <c r="A72" s="151"/>
-      <c r="B72" s="216" t="s">
+      <c r="B72" s="218" t="s">
         <v>63</v>
       </c>
-      <c r="C72" s="217"/>
-      <c r="D72" s="218">
+      <c r="C72" s="219"/>
+      <c r="D72" s="220">
         <f t="shared" ref="D72:L72" si="10">D56-D61-D67-D70</f>
         <v>366373</v>
       </c>
-      <c r="E72" s="218">
+      <c r="E72" s="220">
         <f t="shared" si="10"/>
         <v>26658</v>
       </c>
-      <c r="F72" s="218">
+      <c r="F72" s="220">
         <f t="shared" si="10"/>
         <v>-492739</v>
       </c>
-      <c r="G72" s="219">
+      <c r="G72" s="221">
         <f t="shared" si="10"/>
         <v>285608.3625</v>
       </c>
-      <c r="H72" s="219">
+      <c r="H72" s="221">
         <f t="shared" si="10"/>
         <v>321309.4078125</v>
       </c>
-      <c r="I72" s="219">
+      <c r="I72" s="221">
         <f t="shared" si="10"/>
         <v>1132615.66253906</v>
       </c>
-      <c r="J72" s="219">
+      <c r="J72" s="221">
         <f t="shared" si="10"/>
         <v>1330823.4034834</v>
       </c>
-      <c r="K72" s="219">
+      <c r="K72" s="221">
         <f t="shared" si="10"/>
         <v>1497176.32891882</v>
       </c>
-      <c r="L72" s="237">
+      <c r="L72" s="239">
         <f t="shared" si="10"/>
         <v>1684323.37003368</v>
       </c>
     </row>
     <row r="73" customFormat="1" spans="1:12">
       <c r="A73" s="151"/>
-      <c r="B73" s="220" t="s">
+      <c r="B73" s="222" t="s">
         <v>59</v>
       </c>
-      <c r="C73" s="221"/>
-      <c r="D73" s="222">
+      <c r="C73" s="223"/>
+      <c r="D73" s="224">
         <f t="shared" ref="D73:L73" si="11">D72/D56</f>
         <v>0.10590868922846</v>
       </c>
-      <c r="E73" s="222">
+      <c r="E73" s="224">
         <f t="shared" si="11"/>
         <v>0.00717316915069064</v>
       </c>
-      <c r="F73" s="222">
+      <c r="F73" s="224">
         <f t="shared" si="11"/>
         <v>-0.0970439678565084</v>
       </c>
-      <c r="G73" s="223">
+      <c r="G73" s="225">
         <f t="shared" si="11"/>
         <v>0.0500000000000001</v>
       </c>
-      <c r="H73" s="223">
+      <c r="H73" s="225">
         <f t="shared" si="11"/>
         <v>0.0500000000000001</v>
       </c>
-      <c r="I73" s="223">
+      <c r="I73" s="225">
         <f t="shared" si="11"/>
         <v>0.15</v>
       </c>
-      <c r="J73" s="223">
+      <c r="J73" s="225">
         <f t="shared" si="11"/>
         <v>0.15</v>
       </c>
-      <c r="K73" s="223">
+      <c r="K73" s="225">
         <f t="shared" si="11"/>
         <v>0.15</v>
       </c>
-      <c r="L73" s="238">
+      <c r="L73" s="240">
         <f t="shared" si="11"/>
         <v>0.15</v>
       </c>
@@ -4271,7 +4304,7 @@
         <f>'IS 2021 10K'!D13</f>
         <v>97129</v>
       </c>
-      <c r="G77" s="224"/>
+      <c r="G77" s="226"/>
       <c r="H77" s="188">
         <f>AVERAGE(D77:F77)</f>
         <v>29491.6666666667</v>
@@ -4303,7 +4336,7 @@
       <c r="I78" s="188"/>
       <c r="J78" s="188"/>
       <c r="K78" s="188"/>
-      <c r="L78" s="224"/>
+      <c r="L78" s="226"/>
     </row>
     <row r="79" customFormat="1" spans="1:12">
       <c r="A79" s="151"/>
@@ -4355,27 +4388,27 @@
       <c r="D80" s="191"/>
       <c r="E80" s="191"/>
       <c r="F80" s="191"/>
-      <c r="G80" s="225">
+      <c r="G80" s="227">
         <f t="shared" ref="G80:L80" si="13">G79/G56</f>
         <v>0.0500000000000001</v>
       </c>
-      <c r="H80" s="225">
+      <c r="H80" s="227">
         <f t="shared" si="13"/>
         <v>-0.17761306931323</v>
       </c>
-      <c r="I80" s="225">
+      <c r="I80" s="227">
         <f t="shared" si="13"/>
         <v>-0.0404225288295456</v>
       </c>
-      <c r="J80" s="225">
+      <c r="J80" s="227">
         <f t="shared" si="13"/>
         <v>-0.00928683822994429</v>
       </c>
-      <c r="K80" s="225">
+      <c r="K80" s="227">
         <f t="shared" si="13"/>
         <v>0.0079267316416223</v>
       </c>
-      <c r="L80" s="225">
+      <c r="L80" s="227">
         <f t="shared" si="13"/>
         <v>0.0268399536855075</v>
       </c>
@@ -4384,12 +4417,12 @@
       <c r="D81" s="172"/>
       <c r="E81" s="172"/>
       <c r="F81" s="172"/>
-      <c r="G81" s="224"/>
-      <c r="H81" s="224"/>
-      <c r="I81" s="224"/>
-      <c r="J81" s="224"/>
-      <c r="K81" s="224"/>
-      <c r="L81" s="224"/>
+      <c r="G81" s="226"/>
+      <c r="H81" s="226"/>
+      <c r="I81" s="226"/>
+      <c r="J81" s="226"/>
+      <c r="K81" s="226"/>
+      <c r="L81" s="226"/>
     </row>
     <row r="82" customFormat="1" spans="1:12">
       <c r="A82" s="151"/>
@@ -4413,7 +4446,7 @@
       <c r="I82" s="188"/>
       <c r="J82" s="188"/>
       <c r="K82" s="188"/>
-      <c r="L82" s="224"/>
+      <c r="L82" s="226"/>
     </row>
     <row r="83" customFormat="1" spans="1:12">
       <c r="A83" s="151"/>
@@ -4453,66 +4486,66 @@
     </row>
     <row r="85" customFormat="1" spans="1:12">
       <c r="A85" s="151"/>
-      <c r="B85" s="216" t="s">
+      <c r="B85" s="218" t="s">
         <v>70</v>
       </c>
-      <c r="C85" s="217"/>
-      <c r="D85" s="218">
+      <c r="C85" s="219"/>
+      <c r="D85" s="220">
         <f t="shared" ref="D85:F85" si="15">D79-D82</f>
         <v>1465659</v>
       </c>
-      <c r="E85" s="218">
+      <c r="E85" s="220">
         <f t="shared" si="15"/>
         <v>-1135626</v>
       </c>
-      <c r="F85" s="218">
+      <c r="F85" s="220">
         <f t="shared" si="15"/>
         <v>-221409</v>
       </c>
-      <c r="G85" s="219">
+      <c r="G85" s="221">
         <f>G79*(1-G83)</f>
         <v>214206.271875</v>
       </c>
-      <c r="H85" s="219">
+      <c r="H85" s="221">
         <f>H79*IF(H79&gt;0,(1-H83),1)</f>
         <v>-1141375.00241589</v>
       </c>
-      <c r="I85" s="219">
+      <c r="I85" s="221">
         <f>I79*IF(I79&gt;0,(1-I83),1)</f>
         <v>-305221.261811868</v>
       </c>
-      <c r="J85" s="219">
+      <c r="J85" s="221">
         <f>J79*IF(J79&gt;0,(1-J83),1)</f>
         <v>-82394.2777384946</v>
       </c>
-      <c r="K85" s="219">
+      <c r="K85" s="221">
         <f>K79*IF(K79&gt;0,(1-K83),1)</f>
         <v>59338.5748976437</v>
       </c>
-      <c r="L85" s="237">
+      <c r="L85" s="239">
         <f>L79*IF(L79&gt;0,(1-L83),1)</f>
         <v>226035.806215609</v>
       </c>
     </row>
     <row r="86" customFormat="1" spans="1:12">
       <c r="A86" s="151"/>
-      <c r="B86" s="220" t="s">
+      <c r="B86" s="222" t="s">
         <v>59</v>
       </c>
-      <c r="C86" s="221"/>
-      <c r="D86" s="222"/>
-      <c r="E86" s="222"/>
-      <c r="F86" s="222"/>
-      <c r="G86" s="222"/>
-      <c r="H86" s="222"/>
-      <c r="I86" s="222"/>
-      <c r="J86" s="222"/>
-      <c r="K86" s="222"/>
-      <c r="L86" s="239"/>
+      <c r="C86" s="223"/>
+      <c r="D86" s="224"/>
+      <c r="E86" s="224"/>
+      <c r="F86" s="224"/>
+      <c r="G86" s="224"/>
+      <c r="H86" s="224"/>
+      <c r="I86" s="224"/>
+      <c r="J86" s="224"/>
+      <c r="K86" s="224"/>
+      <c r="L86" s="241"/>
     </row>
     <row r="88" customFormat="1" spans="1:2">
       <c r="A88" s="151"/>
-      <c r="B88" s="226" t="s">
+      <c r="B88" s="228" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4575,27 +4608,27 @@
         <f>'CF 2021 10K'!D7</f>
         <v>544848</v>
       </c>
-      <c r="G90" s="227">
+      <c r="G90" s="229">
         <f t="shared" ref="G90:L90" si="17">G113</f>
         <v>714263.545842971</v>
       </c>
-      <c r="H90" s="227">
+      <c r="H90" s="229">
         <f t="shared" si="17"/>
         <v>783121.160206151</v>
       </c>
-      <c r="I90" s="227">
+      <c r="I90" s="229">
         <f t="shared" si="17"/>
         <v>891527.685551131</v>
       </c>
-      <c r="J90" s="227">
+      <c r="J90" s="229">
         <f t="shared" si="17"/>
         <v>1079379.35126969</v>
       </c>
-      <c r="K90" s="227">
+      <c r="K90" s="229">
         <f t="shared" si="17"/>
         <v>1203045.38760071</v>
       </c>
-      <c r="L90" s="227">
+      <c r="L90" s="229">
         <f t="shared" si="17"/>
         <v>1348438.24391888</v>
       </c>
@@ -4606,32 +4639,32 @@
         <v>73</v>
       </c>
       <c r="C91" s="150"/>
-      <c r="D91" s="228">
+      <c r="D91" s="230">
         <v>0</v>
       </c>
-      <c r="E91" s="228">
+      <c r="E91" s="230">
         <v>0</v>
       </c>
-      <c r="F91" s="228">
+      <c r="F91" s="230">
         <f>F70</f>
         <v>765701</v>
       </c>
-      <c r="G91" s="229">
+      <c r="G91" s="231">
         <v>0</v>
       </c>
-      <c r="H91" s="229">
+      <c r="H91" s="231">
         <v>0</v>
       </c>
-      <c r="I91" s="229">
+      <c r="I91" s="231">
         <v>0</v>
       </c>
-      <c r="J91" s="229">
+      <c r="J91" s="231">
         <v>0</v>
       </c>
-      <c r="K91" s="229">
+      <c r="K91" s="231">
         <v>0</v>
       </c>
-      <c r="L91" s="229">
+      <c r="L91" s="231">
         <v>0</v>
       </c>
     </row>
@@ -4641,15 +4674,15 @@
         <v>74</v>
       </c>
       <c r="C92" s="158"/>
-      <c r="D92" s="230">
+      <c r="D92" s="232">
         <f t="shared" ref="D92:L92" si="18">D89+D90</f>
         <v>831922</v>
       </c>
-      <c r="E92" s="230">
+      <c r="E92" s="232">
         <f t="shared" si="18"/>
         <v>521835</v>
       </c>
-      <c r="F92" s="230">
+      <c r="F92" s="232">
         <f>F89+F90+F91</f>
         <v>817810</v>
       </c>
@@ -4686,103 +4719,103 @@
       <c r="D93" s="193"/>
       <c r="E93" s="193"/>
       <c r="F93" s="193"/>
-      <c r="G93" s="224"/>
-      <c r="H93" s="224"/>
-      <c r="I93" s="224"/>
-      <c r="J93" s="224"/>
-      <c r="K93" s="224"/>
-      <c r="L93" s="224"/>
+      <c r="G93" s="226"/>
+      <c r="H93" s="226"/>
+      <c r="I93" s="226"/>
+      <c r="J93" s="226"/>
+      <c r="K93" s="226"/>
+      <c r="L93" s="226"/>
     </row>
     <row r="94" spans="7:12">
-      <c r="G94" s="224"/>
-      <c r="H94" s="224"/>
-      <c r="I94" s="224"/>
-      <c r="J94" s="224"/>
-      <c r="K94" s="224"/>
-      <c r="L94" s="224"/>
+      <c r="G94" s="226"/>
+      <c r="H94" s="226"/>
+      <c r="I94" s="226"/>
+      <c r="J94" s="226"/>
+      <c r="K94" s="226"/>
+      <c r="L94" s="226"/>
     </row>
     <row r="95" customFormat="1" spans="1:12">
       <c r="A95" s="151"/>
-      <c r="B95" s="216" t="s">
+      <c r="B95" s="218" t="s">
         <v>74</v>
       </c>
-      <c r="C95" s="217"/>
-      <c r="D95" s="218">
+      <c r="C95" s="219"/>
+      <c r="D95" s="220">
         <f t="shared" ref="D95:L95" si="19">D92</f>
         <v>831922</v>
       </c>
-      <c r="E95" s="218">
+      <c r="E95" s="220">
         <f t="shared" si="19"/>
         <v>521835</v>
       </c>
-      <c r="F95" s="218">
+      <c r="F95" s="220">
         <f t="shared" si="19"/>
         <v>817810</v>
       </c>
-      <c r="G95" s="219">
+      <c r="G95" s="221">
         <f t="shared" si="19"/>
         <v>999871.908342971</v>
       </c>
-      <c r="H95" s="219">
+      <c r="H95" s="221">
         <f t="shared" si="19"/>
         <v>1104430.56801865</v>
       </c>
-      <c r="I95" s="219">
+      <c r="I95" s="221">
         <f t="shared" si="19"/>
         <v>2024143.34809019</v>
       </c>
-      <c r="J95" s="219">
+      <c r="J95" s="221">
         <f t="shared" si="19"/>
         <v>2410202.75475309</v>
       </c>
-      <c r="K95" s="219">
+      <c r="K95" s="221">
         <f t="shared" si="19"/>
         <v>2700221.71651953</v>
       </c>
-      <c r="L95" s="237">
+      <c r="L95" s="239">
         <f t="shared" si="19"/>
         <v>3032761.61395256</v>
       </c>
     </row>
     <row r="96" customFormat="1" spans="1:12">
       <c r="A96" s="151"/>
-      <c r="B96" s="220" t="s">
+      <c r="B96" s="222" t="s">
         <v>59</v>
       </c>
-      <c r="C96" s="221"/>
-      <c r="D96" s="231">
+      <c r="C96" s="223"/>
+      <c r="D96" s="233">
         <f t="shared" ref="D96:L96" si="20">D95/D56</f>
         <v>0.240486522097204</v>
       </c>
-      <c r="E96" s="231">
+      <c r="E96" s="233">
         <f t="shared" si="20"/>
         <v>0.140416037352789</v>
       </c>
-      <c r="F96" s="231">
+      <c r="F96" s="233">
         <f t="shared" si="20"/>
         <v>0.161066055970262</v>
       </c>
-      <c r="G96" s="232">
+      <c r="G96" s="234">
         <f t="shared" si="20"/>
         <v>0.175042477676572</v>
       </c>
-      <c r="H96" s="232">
+      <c r="H96" s="234">
         <f t="shared" si="20"/>
         <v>0.171864025945848</v>
       </c>
-      <c r="I96" s="232">
+      <c r="I96" s="234">
         <f t="shared" si="20"/>
         <v>0.268071078527097</v>
       </c>
-      <c r="J96" s="232">
+      <c r="J96" s="234">
         <f t="shared" si="20"/>
         <v>0.271659194049839</v>
       </c>
-      <c r="K96" s="232">
+      <c r="K96" s="234">
         <f t="shared" si="20"/>
         <v>0.270531432840928</v>
       </c>
-      <c r="L96" s="240">
+      <c r="L96" s="242">
         <f t="shared" si="20"/>
         <v>0.270087235139288</v>
       </c>
@@ -4826,14 +4859,14 @@
     <row r="100" ht="5" customHeight="1"/>
     <row r="101" customFormat="1" spans="1:2">
       <c r="A101" s="151"/>
-      <c r="B101" s="226"/>
+      <c r="B101" s="228"/>
     </row>
     <row r="102" customFormat="1" spans="1:14">
       <c r="A102" s="151"/>
       <c r="B102" t="s">
         <v>76</v>
       </c>
-      <c r="C102" s="233"/>
+      <c r="C102" s="235"/>
       <c r="D102" s="171">
         <v>7620075</v>
       </c>
@@ -4845,11 +4878,11 @@
         <f>'BS 2021 10K'!D10</f>
         <v>7918370</v>
       </c>
-      <c r="N102" s="226"/>
+      <c r="N102" s="228"/>
     </row>
     <row r="103" customFormat="1" spans="1:6">
       <c r="A103" s="151"/>
-      <c r="C103" s="233"/>
+      <c r="C103" s="235"/>
       <c r="D103" s="171"/>
       <c r="E103" s="171"/>
       <c r="F103" s="171"/>
@@ -4859,21 +4892,21 @@
       <c r="B104" t="s">
         <v>77</v>
       </c>
-      <c r="D104" s="234">
+      <c r="D104" s="236">
         <v>832476</v>
       </c>
-      <c r="E104" s="234">
+      <c r="E104" s="236">
         <f>'BS 2021 10K'!G26</f>
         <v>1952826</v>
       </c>
-      <c r="F104" s="234">
+      <c r="F104" s="236">
         <f>'BS 2021 10K'!D26</f>
         <v>1343867</v>
       </c>
     </row>
     <row r="105" customFormat="1" spans="1:6">
       <c r="A105" s="151"/>
-      <c r="B105" s="226"/>
+      <c r="B105" s="228"/>
       <c r="D105" s="172"/>
       <c r="E105" s="172"/>
       <c r="F105" s="172"/>
@@ -4883,7 +4916,7 @@
       <c r="B106" t="s">
         <v>78</v>
       </c>
-      <c r="C106" s="233"/>
+      <c r="C106" s="235"/>
       <c r="D106" s="171">
         <f t="shared" ref="D106:F106" si="21">D102-D104</f>
         <v>6787599</v>
@@ -4899,14 +4932,14 @@
     </row>
     <row r="107" customFormat="1" spans="1:6">
       <c r="A107" s="151"/>
-      <c r="C107" s="233"/>
+      <c r="C107" s="235"/>
       <c r="D107" s="171"/>
       <c r="E107" s="171"/>
       <c r="F107" s="171"/>
     </row>
     <row r="108" customFormat="1" spans="1:6">
       <c r="A108" s="151"/>
-      <c r="C108" s="233"/>
+      <c r="C108" s="235"/>
       <c r="D108" s="171"/>
       <c r="E108" s="171"/>
       <c r="F108" s="171"/>
@@ -4918,80 +4951,80 @@
     </row>
     <row r="110" customFormat="1" spans="1:12">
       <c r="A110" s="151"/>
-      <c r="B110" s="216" t="s">
+      <c r="B110" s="218" t="s">
         <v>79</v>
       </c>
-      <c r="C110" s="217"/>
-      <c r="D110" s="218"/>
-      <c r="E110" s="218">
+      <c r="C110" s="219"/>
+      <c r="D110" s="220"/>
+      <c r="E110" s="220">
         <f>E106-D106</f>
         <v>-103317</v>
       </c>
-      <c r="F110" s="218">
+      <c r="F110" s="220">
         <f>F106-E106</f>
         <v>-109779</v>
       </c>
-      <c r="G110" s="219">
+      <c r="G110" s="221">
         <f t="shared" ref="G110:L110" si="22">G111*G56</f>
         <v>-141151.731880957</v>
       </c>
-      <c r="H110" s="219">
+      <c r="H110" s="221">
         <f t="shared" si="22"/>
         <v>-148867.372620538</v>
       </c>
-      <c r="I110" s="219">
+      <c r="I110" s="221">
         <f t="shared" si="22"/>
         <v>-180752.054204636</v>
       </c>
-      <c r="J110" s="219">
+      <c r="J110" s="221">
         <f t="shared" si="22"/>
         <v>-208956.840007339</v>
       </c>
-      <c r="K110" s="219">
+      <c r="K110" s="221">
         <f t="shared" si="22"/>
         <v>-237004.033330005</v>
       </c>
-      <c r="L110" s="237">
+      <c r="L110" s="239">
         <f t="shared" si="22"/>
         <v>-265545.269065272</v>
       </c>
     </row>
     <row r="111" customFormat="1" spans="1:12">
       <c r="A111" s="151"/>
-      <c r="B111" s="220" t="s">
+      <c r="B111" s="222" t="s">
         <v>59</v>
       </c>
-      <c r="C111" s="221"/>
-      <c r="D111" s="235"/>
-      <c r="E111" s="235">
+      <c r="C111" s="223"/>
+      <c r="D111" s="237"/>
+      <c r="E111" s="237">
         <f>E110/E56</f>
         <v>-0.0278006721112576</v>
       </c>
-      <c r="F111" s="235">
+      <c r="F111" s="237">
         <f>F110/F56</f>
         <v>-0.0216207561149404</v>
       </c>
-      <c r="G111" s="232">
+      <c r="G111" s="234">
         <f t="shared" ref="G111:L111" si="23">AVERAGE(E111:F111)</f>
         <v>-0.024710714113099</v>
       </c>
-      <c r="H111" s="232">
+      <c r="H111" s="234">
         <f t="shared" si="23"/>
         <v>-0.0231657351140197</v>
       </c>
-      <c r="I111" s="232">
+      <c r="I111" s="234">
         <f t="shared" si="23"/>
         <v>-0.0239382246135594</v>
       </c>
-      <c r="J111" s="232">
+      <c r="J111" s="234">
         <f t="shared" si="23"/>
         <v>-0.0235519798637895</v>
       </c>
-      <c r="K111" s="232">
+      <c r="K111" s="234">
         <f t="shared" si="23"/>
         <v>-0.0237451022386745</v>
       </c>
-      <c r="L111" s="240">
+      <c r="L111" s="242">
         <f t="shared" si="23"/>
         <v>-0.023648541051232</v>
       </c>
@@ -5000,95 +5033,95 @@
       <c r="D112" s="172"/>
       <c r="E112" s="172"/>
       <c r="F112" s="172"/>
-      <c r="G112" s="224"/>
-      <c r="H112" s="224"/>
-      <c r="I112" s="224"/>
-      <c r="J112" s="224"/>
-      <c r="K112" s="224"/>
-      <c r="L112" s="224"/>
+      <c r="G112" s="226"/>
+      <c r="H112" s="226"/>
+      <c r="I112" s="226"/>
+      <c r="J112" s="226"/>
+      <c r="K112" s="226"/>
+      <c r="L112" s="226"/>
     </row>
     <row r="113" customFormat="1" spans="1:12">
       <c r="A113" s="151"/>
-      <c r="B113" s="216" t="s">
+      <c r="B113" s="218" t="s">
         <v>72</v>
       </c>
-      <c r="C113" s="217"/>
-      <c r="D113" s="218">
+      <c r="C113" s="219"/>
+      <c r="D113" s="220">
         <f t="shared" ref="D113:F113" si="24">D90</f>
         <v>465549</v>
       </c>
-      <c r="E113" s="218">
+      <c r="E113" s="220">
         <f t="shared" si="24"/>
         <v>495177</v>
       </c>
-      <c r="F113" s="218">
+      <c r="F113" s="220">
         <f t="shared" si="24"/>
         <v>544848</v>
       </c>
-      <c r="G113" s="219">
+      <c r="G113" s="221">
         <f t="shared" ref="G113:L113" si="25">G114*G56</f>
         <v>714263.545842971</v>
       </c>
-      <c r="H113" s="219">
+      <c r="H113" s="221">
         <f t="shared" si="25"/>
         <v>783121.160206151</v>
       </c>
-      <c r="I113" s="219">
+      <c r="I113" s="221">
         <f t="shared" si="25"/>
         <v>891527.685551131</v>
       </c>
-      <c r="J113" s="219">
+      <c r="J113" s="221">
         <f t="shared" si="25"/>
         <v>1079379.35126969</v>
       </c>
-      <c r="K113" s="219">
+      <c r="K113" s="221">
         <f t="shared" si="25"/>
         <v>1203045.38760071</v>
       </c>
-      <c r="L113" s="237">
+      <c r="L113" s="239">
         <f t="shared" si="25"/>
         <v>1348438.24391888</v>
       </c>
     </row>
     <row r="114" customFormat="1" spans="1:12">
       <c r="A114" s="151"/>
-      <c r="B114" s="220" t="s">
+      <c r="B114" s="222" t="s">
         <v>59</v>
       </c>
-      <c r="C114" s="221"/>
-      <c r="D114" s="235">
+      <c r="C114" s="223"/>
+      <c r="D114" s="237">
         <f t="shared" ref="D114:F114" si="26">D113/D56</f>
         <v>0.134577832868744</v>
       </c>
-      <c r="E114" s="235">
+      <c r="E114" s="237">
         <f t="shared" si="26"/>
         <v>0.133242868202098</v>
       </c>
-      <c r="F114" s="235">
+      <c r="F114" s="237">
         <f t="shared" si="26"/>
         <v>0.107306731958873</v>
       </c>
-      <c r="G114" s="223">
+      <c r="G114" s="225">
         <f t="shared" ref="G114:L114" si="27">AVERAGE(D114:F114)</f>
         <v>0.125042477676572</v>
       </c>
-      <c r="H114" s="223">
+      <c r="H114" s="225">
         <f t="shared" si="27"/>
         <v>0.121864025945848</v>
       </c>
-      <c r="I114" s="223">
+      <c r="I114" s="225">
         <f t="shared" si="27"/>
         <v>0.118071078527097</v>
       </c>
-      <c r="J114" s="223">
+      <c r="J114" s="225">
         <f t="shared" si="27"/>
         <v>0.121659194049839</v>
       </c>
-      <c r="K114" s="223">
+      <c r="K114" s="225">
         <f t="shared" si="27"/>
         <v>0.120531432840928</v>
       </c>
-      <c r="L114" s="238">
+      <c r="L114" s="240">
         <f t="shared" si="27"/>
         <v>0.120087235139288</v>
       </c>
@@ -5106,11 +5139,11 @@
       <c r="D116" s="171"/>
       <c r="E116" s="171"/>
       <c r="F116" s="171"/>
-      <c r="G116" s="215"/>
-      <c r="H116" s="215"/>
-      <c r="I116" s="215"/>
-      <c r="J116" s="215"/>
-      <c r="K116" s="215"/>
+      <c r="G116" s="217"/>
+      <c r="H116" s="217"/>
+      <c r="I116" s="217"/>
+      <c r="J116" s="217"/>
+      <c r="K116" s="217"/>
     </row>
     <row r="117" customFormat="1" spans="1:11">
       <c r="A117" s="151"/>
@@ -5120,11 +5153,11 @@
       <c r="D117" s="191"/>
       <c r="E117" s="191"/>
       <c r="F117" s="191"/>
-      <c r="G117" s="236"/>
-      <c r="H117" s="236"/>
-      <c r="I117" s="236"/>
-      <c r="J117" s="236"/>
-      <c r="K117" s="236"/>
+      <c r="G117" s="238"/>
+      <c r="H117" s="238"/>
+      <c r="I117" s="238"/>
+      <c r="J117" s="238"/>
+      <c r="K117" s="238"/>
     </row>
     <row r="118" spans="4:6">
       <c r="D118" s="172"/>
@@ -5139,11 +5172,11 @@
       <c r="D119" s="172"/>
       <c r="E119" s="172"/>
       <c r="F119" s="172"/>
-      <c r="G119" s="215"/>
-      <c r="H119" s="215"/>
-      <c r="I119" s="215"/>
-      <c r="J119" s="215"/>
-      <c r="K119" s="215"/>
+      <c r="G119" s="217"/>
+      <c r="H119" s="217"/>
+      <c r="I119" s="217"/>
+      <c r="J119" s="217"/>
+      <c r="K119" s="217"/>
     </row>
     <row r="120" customFormat="1" spans="1:11">
       <c r="A120" s="151"/>
@@ -5166,84 +5199,84 @@
     </row>
     <row r="122" customFormat="1" spans="1:13">
       <c r="A122" s="151"/>
-      <c r="B122" s="216" t="s">
+      <c r="B122" s="218" t="s">
         <v>82</v>
       </c>
-      <c r="C122" s="217"/>
-      <c r="D122" s="218">
+      <c r="C122" s="219"/>
+      <c r="D122" s="220">
         <f>-'CF 2021 10K'!P26</f>
         <v>540688</v>
       </c>
-      <c r="E122" s="218">
+      <c r="E122" s="220">
         <f>-'CF 2021 10K'!J26</f>
         <v>873354</v>
       </c>
-      <c r="F122" s="218">
+      <c r="F122" s="220">
         <f>-'CF 2021 10K'!D26</f>
         <v>1011546</v>
       </c>
-      <c r="G122" s="219">
+      <c r="G122" s="221">
         <f t="shared" ref="G122:L122" si="28">G123*G56</f>
         <v>856825.0875</v>
       </c>
-      <c r="H122" s="219">
+      <c r="H122" s="221">
         <f t="shared" si="28"/>
         <v>963928.2234375</v>
       </c>
-      <c r="I122" s="219">
+      <c r="I122" s="221">
         <f t="shared" si="28"/>
         <v>1132615.66253906</v>
       </c>
-      <c r="J122" s="219">
+      <c r="J122" s="221">
         <f t="shared" si="28"/>
         <v>887215.602322266</v>
       </c>
-      <c r="K122" s="219">
+      <c r="K122" s="221">
         <f t="shared" si="28"/>
         <v>998117.552612549</v>
       </c>
-      <c r="L122" s="237">
+      <c r="L122" s="239">
         <f t="shared" si="28"/>
         <v>1122882.24668912</v>
       </c>
-      <c r="M122" s="241"/>
+      <c r="M122" s="243"/>
     </row>
     <row r="123" customFormat="1" spans="1:12">
       <c r="A123" s="151"/>
-      <c r="B123" s="220" t="s">
+      <c r="B123" s="222" t="s">
         <v>59</v>
       </c>
-      <c r="C123" s="221"/>
-      <c r="D123" s="235">
+      <c r="C123" s="223"/>
+      <c r="D123" s="237">
         <f t="shared" ref="D123:F123" si="29">D122/D56</f>
         <v>0.156298519163688</v>
       </c>
-      <c r="E123" s="235">
+      <c r="E123" s="237">
         <f t="shared" si="29"/>
         <v>0.235003224939315</v>
       </c>
-      <c r="F123" s="235">
+      <c r="F123" s="237">
         <f t="shared" si="29"/>
         <v>0.199221976562398</v>
       </c>
-      <c r="G123" s="232">
+      <c r="G123" s="234">
         <f>15%</f>
         <v>0.15</v>
       </c>
-      <c r="H123" s="232">
+      <c r="H123" s="234">
         <f>15%</f>
         <v>0.15</v>
       </c>
-      <c r="I123" s="232">
+      <c r="I123" s="234">
         <v>0.15</v>
       </c>
-      <c r="J123" s="232">
+      <c r="J123" s="234">
         <v>0.1</v>
       </c>
-      <c r="K123" s="232">
+      <c r="K123" s="234">
         <v>0.1</v>
       </c>
-      <c r="L123" s="240">
+      <c r="L123" s="242">
         <v>0.1</v>
       </c>
     </row>
@@ -5462,15 +5495,15 @@
       <c r="A131" s="151"/>
       <c r="B131" s="150"/>
       <c r="C131" s="150"/>
-      <c r="D131" s="242"/>
-      <c r="E131" s="242"/>
-      <c r="F131" s="242"/>
-      <c r="G131" s="243"/>
-      <c r="H131" s="243"/>
-      <c r="I131" s="243"/>
-      <c r="J131" s="243"/>
-      <c r="K131" s="243"/>
-      <c r="L131" s="224"/>
+      <c r="D131" s="244"/>
+      <c r="E131" s="244"/>
+      <c r="F131" s="244"/>
+      <c r="G131" s="245"/>
+      <c r="H131" s="245"/>
+      <c r="I131" s="245"/>
+      <c r="J131" s="245"/>
+      <c r="K131" s="245"/>
+      <c r="L131" s="226"/>
     </row>
     <row r="132" customFormat="1" spans="1:12">
       <c r="A132" s="151"/>
@@ -5479,35 +5512,35 @@
       </c>
       <c r="C132" s="158"/>
       <c r="D132" s="158"/>
-      <c r="E132" s="230">
+      <c r="E132" s="232">
         <f t="shared" ref="E132:L132" si="34">E127+E128-E129-E130-E131</f>
         <v>-1410486</v>
       </c>
-      <c r="F132" s="230">
+      <c r="F132" s="232">
         <f t="shared" si="34"/>
         <v>-578328</v>
       </c>
-      <c r="G132" s="244">
+      <c r="G132" s="246">
         <f t="shared" si="34"/>
         <v>212796.462098928</v>
       </c>
-      <c r="H132" s="244">
+      <c r="H132" s="246">
         <f t="shared" si="34"/>
         <v>-1173314.6930267</v>
       </c>
-      <c r="I132" s="244">
+      <c r="I132" s="246">
         <f t="shared" si="34"/>
         <v>-365557.184595163</v>
       </c>
-      <c r="J132" s="244">
+      <c r="J132" s="246">
         <f t="shared" si="34"/>
         <v>318726.311216271</v>
       </c>
-      <c r="K132" s="244">
+      <c r="K132" s="246">
         <f t="shared" si="34"/>
         <v>501270.443215809</v>
       </c>
-      <c r="L132" s="249">
+      <c r="L132" s="251">
         <f t="shared" si="34"/>
         <v>717137.072510644</v>
       </c>
@@ -5517,12 +5550,12 @@
       <c r="D133" s="172"/>
       <c r="E133" s="172"/>
       <c r="F133" s="172"/>
-      <c r="G133" s="224"/>
-      <c r="H133" s="224"/>
-      <c r="I133" s="224"/>
-      <c r="J133" s="224"/>
-      <c r="K133" s="224"/>
-      <c r="L133" s="224"/>
+      <c r="G133" s="226"/>
+      <c r="H133" s="226"/>
+      <c r="I133" s="226"/>
+      <c r="J133" s="226"/>
+      <c r="K133" s="226"/>
+      <c r="L133" s="226"/>
     </row>
     <row r="134" spans="2:12">
       <c r="B134" s="158" t="s">
@@ -5531,12 +5564,12 @@
       <c r="D134" s="172"/>
       <c r="E134" s="172"/>
       <c r="F134" s="172"/>
-      <c r="G134" s="224"/>
-      <c r="H134" s="224"/>
-      <c r="I134" s="224"/>
-      <c r="J134" s="224"/>
-      <c r="K134" s="224"/>
-      <c r="L134" s="224"/>
+      <c r="G134" s="226"/>
+      <c r="H134" s="226"/>
+      <c r="I134" s="226"/>
+      <c r="J134" s="226"/>
+      <c r="K134" s="226"/>
+      <c r="L134" s="226"/>
     </row>
     <row r="135" customFormat="1" spans="1:12">
       <c r="A135" s="151"/>
@@ -5546,7 +5579,7 @@
       <c r="D135" s="172"/>
       <c r="E135" s="172"/>
       <c r="F135" s="172"/>
-      <c r="G135" s="245">
+      <c r="G135" s="247">
         <f>'BS 2021 10K'!E5+'BS 2021 10K'!D6</f>
         <v>6393682</v>
       </c>
@@ -5612,7 +5645,7 @@
       <c r="D137" s="172"/>
       <c r="E137" s="172"/>
       <c r="F137" s="172"/>
-      <c r="G137" s="224"/>
+      <c r="G137" s="226"/>
       <c r="H137" s="188">
         <f>-H184</f>
         <v>-2883796.23984862</v>
@@ -5636,34 +5669,34 @@
     </row>
     <row r="138" customFormat="1" spans="1:12">
       <c r="A138" s="151"/>
-      <c r="B138" s="246" t="s">
+      <c r="B138" s="248" t="s">
         <v>90</v>
       </c>
-      <c r="C138" s="246"/>
-      <c r="D138" s="247"/>
-      <c r="E138" s="247"/>
-      <c r="F138" s="247"/>
-      <c r="G138" s="248">
+      <c r="C138" s="248"/>
+      <c r="D138" s="249"/>
+      <c r="E138" s="249"/>
+      <c r="F138" s="249"/>
+      <c r="G138" s="250">
         <f>SUM(G135:G137)</f>
         <v>6606478.46209893</v>
       </c>
-      <c r="H138" s="249">
+      <c r="H138" s="251">
         <f t="shared" ref="H138:L138" si="37">H135+H136+H137</f>
         <v>2549367.52922362</v>
       </c>
-      <c r="I138" s="249">
+      <c r="I138" s="251">
         <f t="shared" si="37"/>
         <v>939551.377113054</v>
       </c>
-      <c r="J138" s="249">
+      <c r="J138" s="251">
         <f t="shared" si="37"/>
         <v>513123.134803286</v>
       </c>
-      <c r="K138" s="249">
+      <c r="K138" s="251">
         <f t="shared" si="37"/>
         <v>548964.653936902</v>
       </c>
-      <c r="L138" s="249">
+      <c r="L138" s="251">
         <f t="shared" si="37"/>
         <v>617585.235679015</v>
       </c>
@@ -5693,31 +5726,31 @@
         <v>92</v>
       </c>
       <c r="C146" s="157"/>
-      <c r="D146" s="250">
+      <c r="D146" s="252">
         <v>2019</v>
       </c>
-      <c r="E146" s="250">
+      <c r="E146" s="252">
         <v>2020</v>
       </c>
-      <c r="F146" s="250">
+      <c r="F146" s="252">
         <v>2021</v>
       </c>
-      <c r="G146" s="251">
+      <c r="G146" s="253">
         <v>2022</v>
       </c>
-      <c r="H146" s="251">
+      <c r="H146" s="253">
         <v>2023</v>
       </c>
-      <c r="I146" s="251">
+      <c r="I146" s="253">
         <v>2024</v>
       </c>
-      <c r="J146" s="251">
+      <c r="J146" s="253">
         <v>2025</v>
       </c>
-      <c r="K146" s="251">
+      <c r="K146" s="253">
         <v>2026</v>
       </c>
-      <c r="L146" s="251">
+      <c r="L146" s="253">
         <v>2027</v>
       </c>
     </row>
@@ -5727,7 +5760,7 @@
     </row>
     <row r="148" customFormat="1" spans="1:12">
       <c r="A148" s="151"/>
-      <c r="B148" s="252" t="s">
+      <c r="B148" s="254" t="s">
         <v>21</v>
       </c>
       <c r="C148" s="150"/>
@@ -5746,25 +5779,25 @@
       <c r="B149" s="160" t="s">
         <v>87</v>
       </c>
-      <c r="C149" s="253"/>
-      <c r="G149" s="254"/>
-      <c r="H149" s="255">
+      <c r="C149" s="255"/>
+      <c r="G149" s="256"/>
+      <c r="H149" s="257">
         <f t="shared" ref="H149:L149" si="38">H135</f>
         <v>6606478.46209893</v>
       </c>
-      <c r="I149" s="255">
+      <c r="I149" s="257">
         <f t="shared" si="38"/>
         <v>2549367.52922362</v>
       </c>
-      <c r="J149" s="255">
+      <c r="J149" s="257">
         <f t="shared" si="38"/>
         <v>939551.377113054</v>
       </c>
-      <c r="K149" s="255">
+      <c r="K149" s="257">
         <f t="shared" si="38"/>
         <v>513123.134803286</v>
       </c>
-      <c r="L149" s="255">
+      <c r="L149" s="257">
         <f t="shared" si="38"/>
         <v>548964.653936902</v>
       </c>
@@ -5774,121 +5807,121 @@
       <c r="B150" s="160" t="s">
         <v>93</v>
       </c>
-      <c r="C150" s="253"/>
-      <c r="G150" s="213"/>
-      <c r="H150" s="255">
+      <c r="C150" s="255"/>
+      <c r="G150" s="215"/>
+      <c r="H150" s="257">
         <f t="shared" ref="H150:L150" si="39">H132</f>
         <v>-1173314.6930267</v>
       </c>
-      <c r="I150" s="255">
+      <c r="I150" s="257">
         <f t="shared" si="39"/>
         <v>-365557.184595163</v>
       </c>
-      <c r="J150" s="255">
+      <c r="J150" s="257">
         <f t="shared" si="39"/>
         <v>318726.311216271</v>
       </c>
-      <c r="K150" s="255">
+      <c r="K150" s="257">
         <f t="shared" si="39"/>
         <v>501270.443215809</v>
       </c>
-      <c r="L150" s="255">
+      <c r="L150" s="257">
         <f t="shared" si="39"/>
         <v>717137.072510644</v>
       </c>
     </row>
     <row r="151" customFormat="1" spans="1:12">
       <c r="A151" s="151"/>
-      <c r="B151" s="256" t="s">
+      <c r="B151" s="258" t="s">
         <v>94</v>
       </c>
-      <c r="C151" s="253"/>
-      <c r="F151" s="257"/>
-      <c r="G151" s="230"/>
-      <c r="H151" s="255">
+      <c r="C151" s="255"/>
+      <c r="F151" s="259"/>
+      <c r="G151" s="232"/>
+      <c r="H151" s="257">
         <f t="shared" ref="H151:L151" si="40">-(H164+H171)</f>
         <v>-720000</v>
       </c>
-      <c r="I151" s="255">
+      <c r="I151" s="257">
         <f t="shared" si="40"/>
         <v>-720000</v>
       </c>
-      <c r="J151" s="255">
+      <c r="J151" s="257">
         <f t="shared" si="40"/>
         <v>-720000</v>
       </c>
-      <c r="K151" s="255">
+      <c r="K151" s="257">
         <f t="shared" si="40"/>
         <v>-720000</v>
       </c>
-      <c r="L151" s="255">
+      <c r="L151" s="257">
         <f t="shared" si="40"/>
         <v>-720000</v>
       </c>
     </row>
     <row r="152" customFormat="1" spans="1:12">
       <c r="A152" s="151"/>
-      <c r="B152" s="256" t="s">
+      <c r="B152" s="258" t="s">
         <v>95</v>
       </c>
-      <c r="C152" s="253"/>
-      <c r="F152" s="257"/>
-      <c r="G152" s="230"/>
-      <c r="H152" s="255">
+      <c r="C152" s="255"/>
+      <c r="F152" s="259"/>
+      <c r="G152" s="232"/>
+      <c r="H152" s="257">
         <f>-H67*$E$24</f>
         <v>-385571.289375</v>
       </c>
-      <c r="I152" s="255">
+      <c r="I152" s="257">
         <f>-I67*$E$24</f>
         <v>-415292.409597656</v>
       </c>
-      <c r="J152" s="255">
+      <c r="J152" s="257">
         <f>-J67*$E$24</f>
         <v>-487968.581277246</v>
       </c>
-      <c r="K152" s="255">
+      <c r="K152" s="257">
         <f>-K67*$E$24</f>
         <v>-548964.653936902</v>
       </c>
-      <c r="L152" s="255">
+      <c r="L152" s="257">
         <f>-L67*$E$24</f>
         <v>-617585.235679015</v>
       </c>
     </row>
     <row r="153" customFormat="1" spans="1:12">
       <c r="A153" s="151"/>
-      <c r="B153" s="258" t="s">
+      <c r="B153" s="260" t="s">
         <v>96</v>
       </c>
-      <c r="C153" s="258"/>
-      <c r="D153" s="258"/>
-      <c r="E153" s="258"/>
-      <c r="F153" s="258"/>
-      <c r="G153" s="258"/>
-      <c r="H153" s="259">
+      <c r="C153" s="260"/>
+      <c r="D153" s="260"/>
+      <c r="E153" s="260"/>
+      <c r="F153" s="260"/>
+      <c r="G153" s="260"/>
+      <c r="H153" s="261">
         <f t="shared" ref="H153:L153" si="41">H149+H150+H151+H152</f>
         <v>4327592.47969723</v>
       </c>
-      <c r="I153" s="259">
+      <c r="I153" s="261">
         <f t="shared" si="41"/>
         <v>1048517.9350308</v>
       </c>
-      <c r="J153" s="259">
+      <c r="J153" s="261">
         <f t="shared" si="41"/>
         <v>50309.1070520795</v>
       </c>
-      <c r="K153" s="259">
+      <c r="K153" s="261">
         <f t="shared" si="41"/>
         <v>-254571.075917807</v>
       </c>
-      <c r="L153" s="259">
+      <c r="L153" s="261">
         <f t="shared" si="41"/>
         <v>-71483.5092314688</v>
       </c>
     </row>
     <row r="155" customFormat="1" spans="1:12">
       <c r="A155" s="151"/>
-      <c r="B155" s="252" t="s">
+      <c r="B155" s="254" t="s">
         <v>97</v>
       </c>
       <c r="C155" s="150"/>
@@ -5897,33 +5930,33 @@
       <c r="F155" s="150"/>
       <c r="G155" s="150"/>
       <c r="H155" s="150"/>
-      <c r="I155" s="262"/>
-      <c r="J155" s="262"/>
-      <c r="K155" s="262"/>
-      <c r="L155" s="262"/>
+      <c r="I155" s="264"/>
+      <c r="J155" s="264"/>
+      <c r="K155" s="264"/>
+      <c r="L155" s="264"/>
     </row>
     <row r="156" customFormat="1" spans="1:12">
       <c r="A156" s="151"/>
       <c r="B156" s="160" t="s">
         <v>87</v>
       </c>
-      <c r="H156" s="260">
+      <c r="H156" s="262">
         <f t="shared" ref="H156:L156" si="42">G158</f>
         <v>0</v>
       </c>
-      <c r="I156" s="255">
+      <c r="I156" s="257">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="J156" s="255">
+      <c r="J156" s="257">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="K156" s="255">
+      <c r="K156" s="257">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="L156" s="255">
+      <c r="L156" s="257">
         <f t="shared" si="42"/>
         <v>254571.075917807</v>
       </c>
@@ -5933,56 +5966,56 @@
       <c r="B157" s="160" t="s">
         <v>98</v>
       </c>
-      <c r="H157" s="255">
+      <c r="H157" s="257">
         <f>IF(H153&gt;0,-MIN(H153,H156),-H153)</f>
         <v>0</v>
       </c>
-      <c r="I157" s="255">
+      <c r="I157" s="257">
         <f>IF(I153&gt;0,-MIN(I153,I156),-I153)</f>
         <v>0</v>
       </c>
-      <c r="J157" s="255">
+      <c r="J157" s="257">
         <f>IF(J153&gt;0,-MIN(J153,J156),-J153)</f>
         <v>0</v>
       </c>
-      <c r="K157" s="255">
+      <c r="K157" s="257">
         <f>IF(K153&gt;0,-MIN(K153,K156),-K153)</f>
         <v>254571.075917807</v>
       </c>
-      <c r="L157" s="255">
+      <c r="L157" s="257">
         <f>IF(L153&gt;0,-MIN(L153,L156),-L153)</f>
         <v>71483.5092314688</v>
       </c>
     </row>
     <row r="158" customFormat="1" spans="1:12">
       <c r="A158" s="151"/>
-      <c r="B158" s="261" t="s">
+      <c r="B158" s="263" t="s">
         <v>99</v>
       </c>
-      <c r="C158" s="258"/>
-      <c r="D158" s="258"/>
-      <c r="E158" s="258"/>
-      <c r="F158" s="258"/>
-      <c r="G158" s="258">
+      <c r="C158" s="260"/>
+      <c r="D158" s="260"/>
+      <c r="E158" s="260"/>
+      <c r="F158" s="260"/>
+      <c r="G158" s="260">
         <v>0</v>
       </c>
-      <c r="H158" s="259">
+      <c r="H158" s="261">
         <f t="shared" ref="H158:L158" si="43">SUM(H156:H157)</f>
         <v>0</v>
       </c>
-      <c r="I158" s="259">
+      <c r="I158" s="261">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="J158" s="259">
+      <c r="J158" s="261">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="K158" s="259">
+      <c r="K158" s="261">
         <f t="shared" si="43"/>
         <v>254571.075917807</v>
       </c>
-      <c r="L158" s="259">
+      <c r="L158" s="261">
         <f t="shared" si="43"/>
         <v>326054.585149276</v>
       </c>
@@ -5992,46 +6025,46 @@
       <c r="B159" s="160" t="s">
         <v>100</v>
       </c>
-      <c r="H159" s="255">
+      <c r="H159" s="257">
         <f>H156*($E$25+$G$31)</f>
         <v>0</v>
       </c>
-      <c r="I159" s="255">
+      <c r="I159" s="257">
         <f>I156*($E$25+$G$31)</f>
         <v>0</v>
       </c>
-      <c r="J159" s="255">
+      <c r="J159" s="257">
         <f>J156*($E$25+$G$31)</f>
         <v>0</v>
       </c>
-      <c r="K159" s="255">
+      <c r="K159" s="257">
         <f>K156*($E$25+$G$31)</f>
         <v>0</v>
       </c>
-      <c r="L159" s="255">
+      <c r="L159" s="257">
         <f>L156*($E$25+$G$31)</f>
         <v>17819.9753142465</v>
       </c>
     </row>
     <row r="160" customFormat="1" spans="1:12">
       <c r="A160" s="151"/>
-      <c r="H160" s="215"/>
-      <c r="I160" s="215"/>
-      <c r="J160" s="215"/>
-      <c r="K160" s="215"/>
-      <c r="L160" s="215"/>
+      <c r="H160" s="217"/>
+      <c r="I160" s="217"/>
+      <c r="J160" s="217"/>
+      <c r="K160" s="217"/>
+      <c r="L160" s="217"/>
     </row>
     <row r="161" customFormat="1" spans="1:12">
       <c r="A161" s="151"/>
-      <c r="H161" s="215"/>
-      <c r="I161" s="215"/>
-      <c r="J161" s="215"/>
-      <c r="K161" s="215"/>
-      <c r="L161" s="215"/>
+      <c r="H161" s="217"/>
+      <c r="I161" s="217"/>
+      <c r="J161" s="217"/>
+      <c r="K161" s="217"/>
+      <c r="L161" s="217"/>
     </row>
     <row r="162" customFormat="1" spans="1:12">
       <c r="A162" s="151"/>
-      <c r="B162" s="252" t="str">
+      <c r="B162" s="254" t="str">
         <f>B45</f>
         <v>Term Loan &amp; Senior Secured</v>
       </c>
@@ -6040,35 +6073,35 @@
       <c r="E162" s="150"/>
       <c r="F162" s="150"/>
       <c r="G162" s="150"/>
-      <c r="H162" s="262"/>
-      <c r="I162" s="262"/>
-      <c r="J162" s="262"/>
-      <c r="K162" s="262"/>
-      <c r="L162" s="262"/>
+      <c r="H162" s="264"/>
+      <c r="I162" s="264"/>
+      <c r="J162" s="264"/>
+      <c r="K162" s="264"/>
+      <c r="L162" s="264"/>
     </row>
     <row r="163" customFormat="1" spans="1:12">
       <c r="A163" s="151"/>
       <c r="B163" s="160" t="s">
         <v>87</v>
       </c>
-      <c r="G163" s="212"/>
-      <c r="H163" s="255">
+      <c r="G163" s="213"/>
+      <c r="H163" s="257">
         <f>E32</f>
         <v>9500000</v>
       </c>
-      <c r="I163" s="255">
+      <c r="I163" s="257">
         <f t="shared" ref="I163:L163" si="44">H166</f>
         <v>7241203.76015138</v>
       </c>
-      <c r="J163" s="255">
+      <c r="J163" s="257">
         <f t="shared" si="44"/>
         <v>6621944.79263599</v>
       </c>
-      <c r="K163" s="255">
+      <c r="K163" s="257">
         <f t="shared" si="44"/>
         <v>6501790.23910995</v>
       </c>
-      <c r="L163" s="255">
+      <c r="L163" s="257">
         <f t="shared" si="44"/>
         <v>6406790.23910995</v>
       </c>
@@ -6078,83 +6111,83 @@
       <c r="B164" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="G164" s="215"/>
-      <c r="H164" s="255">
+      <c r="G164" s="217"/>
+      <c r="H164" s="257">
         <f t="shared" ref="H164:L164" si="45">$H$163*$L$32</f>
         <v>95000</v>
       </c>
-      <c r="I164" s="255">
+      <c r="I164" s="257">
         <f t="shared" si="45"/>
         <v>95000</v>
       </c>
-      <c r="J164" s="255">
+      <c r="J164" s="257">
         <f t="shared" si="45"/>
         <v>95000</v>
       </c>
-      <c r="K164" s="255">
+      <c r="K164" s="257">
         <f t="shared" si="45"/>
         <v>95000</v>
       </c>
-      <c r="L164" s="255">
+      <c r="L164" s="257">
         <f t="shared" si="45"/>
         <v>95000</v>
       </c>
     </row>
     <row r="165" customFormat="1" spans="1:12">
       <c r="A165" s="151"/>
-      <c r="B165" s="256" t="s">
+      <c r="B165" s="258" t="s">
         <v>101</v>
       </c>
-      <c r="F165" s="257"/>
-      <c r="G165" s="230"/>
-      <c r="H165" s="255">
+      <c r="F165" s="259"/>
+      <c r="G165" s="232"/>
+      <c r="H165" s="257">
         <f t="shared" ref="H165:L165" si="46">IF(H153+H157&gt;0,MIN((H153+H157)*$J$32,H163-H164),0)</f>
         <v>2163796.23984862</v>
       </c>
-      <c r="I165" s="255">
+      <c r="I165" s="257">
         <f t="shared" si="46"/>
         <v>524258.967515398</v>
       </c>
-      <c r="J165" s="255">
+      <c r="J165" s="257">
         <f t="shared" si="46"/>
         <v>25154.5535260398</v>
       </c>
-      <c r="K165" s="255">
+      <c r="K165" s="257">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="L165" s="255">
+      <c r="L165" s="257">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
     <row r="166" customFormat="1" spans="1:12">
       <c r="A166" s="151"/>
-      <c r="B166" s="261" t="s">
+      <c r="B166" s="263" t="s">
         <v>102</v>
       </c>
-      <c r="C166" s="258"/>
-      <c r="D166" s="258"/>
-      <c r="E166" s="258"/>
-      <c r="F166" s="263"/>
-      <c r="G166" s="259"/>
-      <c r="H166" s="259">
+      <c r="C166" s="260"/>
+      <c r="D166" s="260"/>
+      <c r="E166" s="260"/>
+      <c r="F166" s="265"/>
+      <c r="G166" s="261"/>
+      <c r="H166" s="261">
         <f t="shared" ref="H166:L166" si="47">H163-H164-H165</f>
         <v>7241203.76015138</v>
       </c>
-      <c r="I166" s="259">
+      <c r="I166" s="261">
         <f t="shared" si="47"/>
         <v>6621944.79263599</v>
       </c>
-      <c r="J166" s="259">
+      <c r="J166" s="261">
         <f t="shared" si="47"/>
         <v>6501790.23910995</v>
       </c>
-      <c r="K166" s="259">
+      <c r="K166" s="261">
         <f t="shared" si="47"/>
         <v>6406790.23910995</v>
       </c>
-      <c r="L166" s="259">
+      <c r="L166" s="261">
         <f t="shared" si="47"/>
         <v>6311790.23910995</v>
       </c>
@@ -6164,39 +6197,39 @@
       <c r="B167" s="160" t="s">
         <v>100</v>
       </c>
-      <c r="H167" s="255">
+      <c r="H167" s="257">
         <f>H163*($G$32+$E$25)</f>
         <v>760000</v>
       </c>
-      <c r="I167" s="255">
+      <c r="I167" s="257">
         <f>I163*($G$32+$E$25)</f>
         <v>579296.300812111</v>
       </c>
-      <c r="J167" s="255">
+      <c r="J167" s="257">
         <f>J163*($G$32+$E$25)</f>
         <v>529755.583410879</v>
       </c>
-      <c r="K167" s="255">
+      <c r="K167" s="257">
         <f>K163*($G$32+$E$25)</f>
         <v>520143.219128796</v>
       </c>
-      <c r="L167" s="255">
+      <c r="L167" s="257">
         <f>L163*($G$32+$E$25)</f>
         <v>512543.219128796</v>
       </c>
     </row>
     <row r="168" customFormat="1" spans="1:12">
       <c r="A168" s="151"/>
-      <c r="B168" s="226"/>
-      <c r="H168" s="215"/>
-      <c r="I168" s="215"/>
-      <c r="J168" s="215"/>
-      <c r="K168" s="215"/>
-      <c r="L168" s="215"/>
+      <c r="B168" s="228"/>
+      <c r="H168" s="217"/>
+      <c r="I168" s="217"/>
+      <c r="J168" s="217"/>
+      <c r="K168" s="217"/>
+      <c r="L168" s="217"/>
     </row>
     <row r="169" customFormat="1" spans="1:12">
       <c r="A169" s="151"/>
-      <c r="B169" s="252" t="str">
+      <c r="B169" s="254" t="str">
         <f>B46</f>
         <v>Margin Loan</v>
       </c>
@@ -6206,33 +6239,33 @@
       <c r="F169" s="150"/>
       <c r="G169" s="150"/>
       <c r="H169" s="150"/>
-      <c r="I169" s="262"/>
-      <c r="J169" s="262"/>
-      <c r="K169" s="262"/>
-      <c r="L169" s="262"/>
+      <c r="I169" s="264"/>
+      <c r="J169" s="264"/>
+      <c r="K169" s="264"/>
+      <c r="L169" s="264"/>
     </row>
     <row r="170" customFormat="1" spans="1:12">
       <c r="A170" s="151"/>
       <c r="B170" s="160" t="s">
         <v>87</v>
       </c>
-      <c r="G170" s="212"/>
-      <c r="H170" s="255">
+      <c r="G170" s="213"/>
+      <c r="H170" s="257">
         <v>12500000</v>
       </c>
-      <c r="I170" s="255">
+      <c r="I170" s="257">
         <f t="shared" ref="I170:L170" si="48">H173</f>
         <v>11875000</v>
       </c>
-      <c r="J170" s="255">
+      <c r="J170" s="257">
         <f t="shared" si="48"/>
         <v>11250000</v>
       </c>
-      <c r="K170" s="255">
+      <c r="K170" s="257">
         <f t="shared" si="48"/>
         <v>10625000</v>
       </c>
-      <c r="L170" s="255">
+      <c r="L170" s="257">
         <f t="shared" si="48"/>
         <v>10000000</v>
       </c>
@@ -6242,78 +6275,78 @@
       <c r="B171" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="G171" s="215"/>
-      <c r="H171" s="255">
+      <c r="G171" s="217"/>
+      <c r="H171" s="257">
         <f t="shared" ref="H171:L171" si="49">MIN($H$170*$L$33,H170)</f>
         <v>625000</v>
       </c>
-      <c r="I171" s="255">
+      <c r="I171" s="257">
         <f t="shared" si="49"/>
         <v>625000</v>
       </c>
-      <c r="J171" s="255">
+      <c r="J171" s="257">
         <f t="shared" si="49"/>
         <v>625000</v>
       </c>
-      <c r="K171" s="255">
+      <c r="K171" s="257">
         <f t="shared" si="49"/>
         <v>625000</v>
       </c>
-      <c r="L171" s="255">
+      <c r="L171" s="257">
         <f t="shared" si="49"/>
         <v>625000</v>
       </c>
     </row>
     <row r="172" customFormat="1" spans="1:12">
       <c r="A172" s="151"/>
-      <c r="B172" s="256" t="s">
+      <c r="B172" s="258" t="s">
         <v>101</v>
       </c>
-      <c r="F172" s="257"/>
-      <c r="G172" s="230"/>
-      <c r="H172" s="255">
+      <c r="F172" s="259"/>
+      <c r="G172" s="232"/>
+      <c r="H172" s="257">
         <v>0</v>
       </c>
-      <c r="I172" s="255">
+      <c r="I172" s="257">
         <v>0</v>
       </c>
-      <c r="J172" s="255">
+      <c r="J172" s="257">
         <v>0</v>
       </c>
-      <c r="K172" s="255">
+      <c r="K172" s="257">
         <v>0</v>
       </c>
-      <c r="L172" s="255">
+      <c r="L172" s="257">
         <v>0</v>
       </c>
     </row>
     <row r="173" customFormat="1" spans="1:12">
       <c r="A173" s="151"/>
-      <c r="B173" s="261" t="s">
+      <c r="B173" s="263" t="s">
         <v>102</v>
       </c>
-      <c r="C173" s="258"/>
-      <c r="D173" s="258"/>
-      <c r="E173" s="258"/>
-      <c r="F173" s="263"/>
-      <c r="G173" s="259"/>
-      <c r="H173" s="259">
+      <c r="C173" s="260"/>
+      <c r="D173" s="260"/>
+      <c r="E173" s="260"/>
+      <c r="F173" s="265"/>
+      <c r="G173" s="261"/>
+      <c r="H173" s="261">
         <f t="shared" ref="H173:L173" si="50">H170-H171</f>
         <v>11875000</v>
       </c>
-      <c r="I173" s="259">
+      <c r="I173" s="261">
         <f t="shared" si="50"/>
         <v>11250000</v>
       </c>
-      <c r="J173" s="259">
+      <c r="J173" s="261">
         <f t="shared" si="50"/>
         <v>10625000</v>
       </c>
-      <c r="K173" s="259">
+      <c r="K173" s="261">
         <f t="shared" si="50"/>
         <v>10000000</v>
       </c>
-      <c r="L173" s="259">
+      <c r="L173" s="261">
         <f t="shared" si="50"/>
         <v>9375000</v>
       </c>
@@ -6323,39 +6356,39 @@
       <c r="B174" s="160" t="s">
         <v>100</v>
       </c>
-      <c r="H174" s="255">
+      <c r="H174" s="257">
         <f>H170*($E$25+$G$33)</f>
         <v>687500</v>
       </c>
-      <c r="I174" s="255">
+      <c r="I174" s="257">
         <f>I170*($E$25+$G$33)</f>
         <v>653125</v>
       </c>
-      <c r="J174" s="255">
+      <c r="J174" s="257">
         <f>J170*($E$25+$G$33)</f>
         <v>618750</v>
       </c>
-      <c r="K174" s="255">
+      <c r="K174" s="257">
         <f>K170*($E$25+$G$33)</f>
         <v>584375</v>
       </c>
-      <c r="L174" s="255">
+      <c r="L174" s="257">
         <f>L170*($E$25+$G$33)</f>
         <v>550000</v>
       </c>
     </row>
     <row r="175" customFormat="1" spans="1:12">
       <c r="A175" s="151"/>
-      <c r="B175" s="226"/>
-      <c r="H175" s="215"/>
-      <c r="I175" s="215"/>
-      <c r="J175" s="215"/>
-      <c r="K175" s="215"/>
-      <c r="L175" s="215"/>
+      <c r="B175" s="228"/>
+      <c r="H175" s="217"/>
+      <c r="I175" s="217"/>
+      <c r="J175" s="217"/>
+      <c r="K175" s="217"/>
+      <c r="L175" s="217"/>
     </row>
     <row r="176" customFormat="1" spans="1:12">
       <c r="A176" s="151"/>
-      <c r="B176" s="252" t="str">
+      <c r="B176" s="254" t="str">
         <f>B47</f>
         <v>Unsecured Debt</v>
       </c>
@@ -6375,20 +6408,20 @@
       <c r="B177" s="160" t="s">
         <v>87</v>
       </c>
-      <c r="G177" s="212"/>
-      <c r="H177" s="255">
+      <c r="G177" s="213"/>
+      <c r="H177" s="257">
         <v>3000000</v>
       </c>
-      <c r="I177" s="255">
+      <c r="I177" s="257">
         <v>3000000</v>
       </c>
-      <c r="J177" s="255">
+      <c r="J177" s="257">
         <v>3000000</v>
       </c>
-      <c r="K177" s="255">
+      <c r="K177" s="257">
         <v>3000000</v>
       </c>
-      <c r="L177" s="255">
+      <c r="L177" s="257">
         <v>3000000</v>
       </c>
     </row>
@@ -6397,69 +6430,69 @@
       <c r="B178" s="160" t="s">
         <v>103</v>
       </c>
-      <c r="G178" s="215"/>
-      <c r="H178" s="255">
+      <c r="G178" s="217"/>
+      <c r="H178" s="257">
         <v>0</v>
       </c>
-      <c r="I178" s="255">
+      <c r="I178" s="257">
         <v>0</v>
       </c>
-      <c r="J178" s="255">
+      <c r="J178" s="257">
         <v>0</v>
       </c>
-      <c r="K178" s="255">
+      <c r="K178" s="257">
         <v>0</v>
       </c>
-      <c r="L178" s="255">
+      <c r="L178" s="257">
         <v>0</v>
       </c>
     </row>
     <row r="179" customFormat="1" spans="1:12">
       <c r="A179" s="151"/>
-      <c r="B179" s="256" t="s">
+      <c r="B179" s="258" t="s">
         <v>37</v>
       </c>
-      <c r="F179" s="257"/>
-      <c r="G179" s="230"/>
-      <c r="H179" s="255">
+      <c r="F179" s="259"/>
+      <c r="G179" s="232"/>
+      <c r="H179" s="257">
         <v>0</v>
       </c>
-      <c r="I179" s="255">
+      <c r="I179" s="257">
         <v>0</v>
       </c>
-      <c r="J179" s="255">
+      <c r="J179" s="257">
         <v>0</v>
       </c>
-      <c r="K179" s="255">
+      <c r="K179" s="257">
         <v>0</v>
       </c>
-      <c r="L179" s="255">
+      <c r="L179" s="257">
         <v>0</v>
       </c>
     </row>
     <row r="180" customFormat="1" spans="1:12">
       <c r="A180" s="151"/>
-      <c r="B180" s="261" t="s">
+      <c r="B180" s="263" t="s">
         <v>102</v>
       </c>
-      <c r="C180" s="258"/>
-      <c r="D180" s="258"/>
-      <c r="E180" s="258"/>
-      <c r="F180" s="263"/>
-      <c r="G180" s="259"/>
-      <c r="H180" s="259">
+      <c r="C180" s="260"/>
+      <c r="D180" s="260"/>
+      <c r="E180" s="260"/>
+      <c r="F180" s="265"/>
+      <c r="G180" s="261"/>
+      <c r="H180" s="261">
         <v>3000000</v>
       </c>
-      <c r="I180" s="259">
+      <c r="I180" s="261">
         <v>3000000</v>
       </c>
-      <c r="J180" s="259">
+      <c r="J180" s="261">
         <v>3000000</v>
       </c>
-      <c r="K180" s="259">
+      <c r="K180" s="261">
         <v>3000000</v>
       </c>
-      <c r="L180" s="259">
+      <c r="L180" s="261">
         <v>3000000</v>
       </c>
     </row>
@@ -6468,58 +6501,58 @@
       <c r="B181" s="160" t="s">
         <v>100</v>
       </c>
-      <c r="H181" s="255">
+      <c r="H181" s="257">
         <f>H180*($E$25+$G$34)</f>
         <v>375000</v>
       </c>
-      <c r="I181" s="255">
+      <c r="I181" s="257">
         <f>I180*($E$25+$G$34)</f>
         <v>375000</v>
       </c>
-      <c r="J181" s="255">
+      <c r="J181" s="257">
         <f>J180*($E$25+$G$34)</f>
         <v>375000</v>
       </c>
-      <c r="K181" s="255">
+      <c r="K181" s="257">
         <f>K180*($E$25+$G$34)</f>
         <v>375000</v>
       </c>
-      <c r="L181" s="255">
+      <c r="L181" s="257">
         <f>L180*($E$25+$G$34)</f>
         <v>375000</v>
       </c>
     </row>
     <row r="183" customFormat="1" spans="1:2">
       <c r="A183" s="151"/>
-      <c r="B183" s="226"/>
+      <c r="B183" s="228"/>
     </row>
     <row r="184" customFormat="1" spans="1:12">
       <c r="A184" s="151"/>
-      <c r="B184" s="258" t="s">
+      <c r="B184" s="260" t="s">
         <v>104</v>
       </c>
-      <c r="C184" s="258"/>
-      <c r="D184" s="258"/>
-      <c r="E184" s="258"/>
-      <c r="F184" s="258"/>
-      <c r="G184" s="258"/>
-      <c r="H184" s="259">
+      <c r="C184" s="260"/>
+      <c r="D184" s="260"/>
+      <c r="E184" s="260"/>
+      <c r="F184" s="260"/>
+      <c r="G184" s="260"/>
+      <c r="H184" s="261">
         <f>-H157+H164+H165+H171+H172+H179</f>
         <v>2883796.23984862</v>
       </c>
-      <c r="I184" s="259">
+      <c r="I184" s="261">
         <f>-I157+I164+I165+I171+I172+I179</f>
         <v>1244258.9675154</v>
       </c>
-      <c r="J184" s="259">
+      <c r="J184" s="261">
         <f>-J157+J164+J165+J171+J172+J179</f>
         <v>745154.55352604</v>
       </c>
-      <c r="K184" s="259">
+      <c r="K184" s="261">
         <f>K164+K165+K171+K172+K179-K157</f>
         <v>465428.924082193</v>
       </c>
-      <c r="L184" s="259">
+      <c r="L184" s="261">
         <f>L164+L165+L171+L172+L179-L157</f>
         <v>648516.490768531</v>
       </c>
@@ -6529,23 +6562,23 @@
       <c r="B185" t="s">
         <v>100</v>
       </c>
-      <c r="H185" s="255">
+      <c r="H185" s="257">
         <f>SUM(H159,H167,H174,H181)</f>
         <v>1822500</v>
       </c>
-      <c r="I185" s="255">
+      <c r="I185" s="257">
         <f>SUM(I159,I167,I174,I181)</f>
         <v>1607421.30081211</v>
       </c>
-      <c r="J185" s="255">
+      <c r="J185" s="257">
         <f>SUM(J159,J167,J174,J181)</f>
         <v>1523505.58341088</v>
       </c>
-      <c r="K185" s="255">
+      <c r="K185" s="257">
         <f>SUM(K159,K167,K174,K181)</f>
         <v>1479518.2191288</v>
       </c>
-      <c r="L185" s="255">
+      <c r="L185" s="257">
         <f>SUM(L159,L167,L174,L181)</f>
         <v>1455363.19444304</v>
       </c>
@@ -6555,167 +6588,167 @@
       <c r="B186" t="s">
         <v>105</v>
       </c>
-      <c r="H186" s="255">
+      <c r="H186" s="257">
         <f>H135*($G$35+$E$25)</f>
         <v>330323.923104946</v>
       </c>
-      <c r="I186" s="255">
+      <c r="I186" s="257">
         <f>I135*($G$35+$E$25)</f>
         <v>127468.376461181</v>
       </c>
-      <c r="J186" s="255">
+      <c r="J186" s="257">
         <f>J135*($G$35+$E$25)</f>
         <v>46977.5688556527</v>
       </c>
-      <c r="K186" s="255">
+      <c r="K186" s="257">
         <f>K135*($G$35+$E$25)</f>
         <v>25656.1567401643</v>
       </c>
-      <c r="L186" s="255">
+      <c r="L186" s="257">
         <f>L135*($G$35+$E$25)</f>
         <v>27448.2326968451</v>
       </c>
     </row>
     <row r="187" customFormat="1" spans="1:2">
       <c r="A187" s="151"/>
-      <c r="B187" s="264"/>
+      <c r="B187" s="266"/>
     </row>
     <row r="191" customFormat="1" spans="1:12">
       <c r="A191" s="151"/>
-      <c r="B191" s="216" t="s">
+      <c r="B191" s="218" t="s">
         <v>106</v>
       </c>
-      <c r="C191" s="265"/>
-      <c r="D191" s="265"/>
-      <c r="E191" s="265"/>
-      <c r="F191" s="265"/>
-      <c r="G191" s="265"/>
-      <c r="H191" s="265"/>
-      <c r="I191" s="265"/>
-      <c r="J191" s="265"/>
-      <c r="K191" s="265"/>
-      <c r="L191" s="270"/>
+      <c r="C191" s="267"/>
+      <c r="D191" s="267"/>
+      <c r="E191" s="267"/>
+      <c r="F191" s="267"/>
+      <c r="G191" s="267"/>
+      <c r="H191" s="267"/>
+      <c r="I191" s="267"/>
+      <c r="J191" s="267"/>
+      <c r="K191" s="267"/>
+      <c r="L191" s="272"/>
     </row>
     <row r="192" customFormat="1" spans="1:12">
       <c r="A192" s="151"/>
-      <c r="B192" s="266" t="s">
+      <c r="B192" s="268" t="s">
         <v>107</v>
       </c>
-      <c r="C192" s="267"/>
-      <c r="D192" s="267"/>
-      <c r="E192" s="267"/>
-      <c r="F192" s="267"/>
-      <c r="G192" s="268"/>
-      <c r="H192" s="269">
+      <c r="C192" s="269"/>
+      <c r="D192" s="269"/>
+      <c r="E192" s="269"/>
+      <c r="F192" s="269"/>
+      <c r="G192" s="270"/>
+      <c r="H192" s="271">
         <f>SUM(H163,H170,H177,H156)</f>
         <v>25000000</v>
       </c>
-      <c r="I192" s="269">
+      <c r="I192" s="271">
         <f>SUM(I163,I170,I177,I156)</f>
         <v>22116203.7601514</v>
       </c>
-      <c r="J192" s="269">
+      <c r="J192" s="271">
         <f>SUM(J163,J170,J177,J156)</f>
         <v>20871944.792636</v>
       </c>
-      <c r="K192" s="269">
+      <c r="K192" s="271">
         <f>SUM(K163,K170,K177,K156)</f>
         <v>20126790.2391099</v>
       </c>
-      <c r="L192" s="271">
+      <c r="L192" s="273">
         <f>SUM(L163,L170,L177,L156)</f>
         <v>19661361.3150278</v>
       </c>
     </row>
     <row r="193" customFormat="1" spans="1:12">
       <c r="A193" s="151"/>
-      <c r="B193" s="266" t="s">
+      <c r="B193" s="268" t="s">
         <v>103</v>
       </c>
-      <c r="C193" s="267"/>
-      <c r="D193" s="267"/>
-      <c r="E193" s="267"/>
-      <c r="F193" s="267"/>
-      <c r="G193" s="268"/>
-      <c r="H193" s="269">
+      <c r="C193" s="269"/>
+      <c r="D193" s="269"/>
+      <c r="E193" s="269"/>
+      <c r="F193" s="269"/>
+      <c r="G193" s="270"/>
+      <c r="H193" s="271">
         <f>H184</f>
         <v>2883796.23984862</v>
       </c>
-      <c r="I193" s="269">
+      <c r="I193" s="271">
         <f>I184</f>
         <v>1244258.9675154</v>
       </c>
-      <c r="J193" s="269">
+      <c r="J193" s="271">
         <f>J184</f>
         <v>745154.55352604</v>
       </c>
-      <c r="K193" s="269">
+      <c r="K193" s="271">
         <f>K184</f>
         <v>465428.924082193</v>
       </c>
-      <c r="L193" s="271">
+      <c r="L193" s="273">
         <f>L184</f>
         <v>648516.490768531</v>
       </c>
     </row>
     <row r="194" customFormat="1" spans="1:12">
       <c r="A194" s="151"/>
-      <c r="B194" s="272" t="s">
+      <c r="B194" s="274" t="s">
         <v>102</v>
       </c>
-      <c r="C194" s="273"/>
-      <c r="D194" s="273"/>
-      <c r="E194" s="273"/>
-      <c r="F194" s="274"/>
-      <c r="G194" s="274"/>
-      <c r="H194" s="274">
+      <c r="C194" s="275"/>
+      <c r="D194" s="275"/>
+      <c r="E194" s="275"/>
+      <c r="F194" s="276"/>
+      <c r="G194" s="276"/>
+      <c r="H194" s="276">
         <f>H192-H193</f>
         <v>22116203.7601514</v>
       </c>
-      <c r="I194" s="274">
+      <c r="I194" s="276">
         <f>I192-I193</f>
         <v>20871944.792636</v>
       </c>
-      <c r="J194" s="274">
+      <c r="J194" s="276">
         <f>J192-J193</f>
         <v>20126790.2391099</v>
       </c>
-      <c r="K194" s="274">
+      <c r="K194" s="276">
         <f>K192-K193</f>
         <v>19661361.3150278</v>
       </c>
-      <c r="L194" s="279">
+      <c r="L194" s="281">
         <f>L192-L193</f>
         <v>19012844.8242592</v>
       </c>
     </row>
     <row r="195" customFormat="1" spans="1:12">
       <c r="A195" s="151"/>
-      <c r="B195" s="275" t="s">
+      <c r="B195" s="277" t="s">
         <v>108</v>
       </c>
-      <c r="C195" s="275"/>
-      <c r="D195" s="275"/>
-      <c r="E195" s="275"/>
-      <c r="F195" s="275"/>
-      <c r="G195" s="276"/>
-      <c r="H195" s="276" t="b">
+      <c r="C195" s="277"/>
+      <c r="D195" s="277"/>
+      <c r="E195" s="277"/>
+      <c r="F195" s="277"/>
+      <c r="G195" s="278"/>
+      <c r="H195" s="278" t="b">
         <f>IF(H194=I192,TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="I195" s="276" t="b">
+      <c r="I195" s="278" t="b">
         <f>IF(I194=J192,TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="J195" s="276" t="b">
+      <c r="J195" s="278" t="b">
         <f>IF(J194=K192,TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K195" s="276" t="b">
+      <c r="K195" s="278" t="b">
         <f>IF(K194=L192,TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="L195" s="276"/>
+      <c r="L195" s="278"/>
     </row>
     <row r="198" spans="1:12">
       <c r="A198" s="151" t="s">
@@ -6741,8 +6774,8 @@
       <c r="B200" t="s">
         <v>110</v>
       </c>
-      <c r="K200" s="212"/>
-      <c r="L200" s="215">
+      <c r="K200" s="213"/>
+      <c r="L200" s="217">
         <f>L95</f>
         <v>3032761.61395256</v>
       </c>
@@ -6760,8 +6793,8 @@
       <c r="H201" s="150"/>
       <c r="I201" s="150"/>
       <c r="J201" s="150"/>
-      <c r="K201" s="280"/>
-      <c r="L201" s="281">
+      <c r="K201" s="282"/>
+      <c r="L201" s="283">
         <f>E23</f>
         <v>25</v>
       </c>
@@ -6779,8 +6812,8 @@
       <c r="H202" s="158"/>
       <c r="I202" s="158"/>
       <c r="J202" s="158"/>
-      <c r="K202" s="282"/>
-      <c r="L202" s="215">
+      <c r="K202" s="284"/>
+      <c r="L202" s="217">
         <f>L200*L201</f>
         <v>75819040.3488139</v>
       </c>
@@ -6790,8 +6823,8 @@
       <c r="B203" t="s">
         <v>111</v>
       </c>
-      <c r="K203" s="215"/>
-      <c r="L203" s="215">
+      <c r="K203" s="217"/>
+      <c r="L203" s="217">
         <f>L194</f>
         <v>19012844.8242592</v>
       </c>
@@ -6801,16 +6834,16 @@
       <c r="B204" s="195" t="s">
         <v>112</v>
       </c>
-      <c r="C204" s="277"/>
-      <c r="D204" s="277"/>
-      <c r="E204" s="277"/>
-      <c r="F204" s="277"/>
-      <c r="G204" s="277"/>
-      <c r="H204" s="277"/>
-      <c r="I204" s="277"/>
-      <c r="J204" s="277"/>
-      <c r="K204" s="283"/>
-      <c r="L204" s="284">
+      <c r="C204" s="279"/>
+      <c r="D204" s="279"/>
+      <c r="E204" s="279"/>
+      <c r="F204" s="279"/>
+      <c r="G204" s="279"/>
+      <c r="H204" s="279"/>
+      <c r="I204" s="279"/>
+      <c r="J204" s="279"/>
+      <c r="K204" s="285"/>
+      <c r="L204" s="286">
         <f>L202-L203</f>
         <v>56806195.5245547</v>
       </c>
@@ -6820,27 +6853,27 @@
       <c r="B206" s="158" t="s">
         <v>113</v>
       </c>
-      <c r="K206" s="212"/>
-      <c r="L206" s="230">
+      <c r="K206" s="213"/>
+      <c r="L206" s="232">
         <f>D49</f>
         <v>23278906.2</v>
       </c>
     </row>
     <row r="208" customFormat="1" spans="1:12">
       <c r="A208" s="151"/>
-      <c r="B208" s="216" t="s">
+      <c r="B208" s="218" t="s">
         <v>114</v>
       </c>
-      <c r="C208" s="217"/>
-      <c r="D208" s="217"/>
-      <c r="E208" s="217"/>
-      <c r="F208" s="217"/>
-      <c r="G208" s="217"/>
-      <c r="H208" s="217"/>
-      <c r="I208" s="217"/>
-      <c r="J208" s="217"/>
-      <c r="K208" s="285"/>
-      <c r="L208" s="286">
+      <c r="C208" s="219"/>
+      <c r="D208" s="219"/>
+      <c r="E208" s="219"/>
+      <c r="F208" s="219"/>
+      <c r="G208" s="219"/>
+      <c r="H208" s="219"/>
+      <c r="I208" s="219"/>
+      <c r="J208" s="219"/>
+      <c r="K208" s="287"/>
+      <c r="L208" s="288">
         <f>L204/L206</f>
         <v>2.44024332743584</v>
       </c>
@@ -6849,19 +6882,19 @@
       <c r="A209" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="B209" s="278" t="s">
+      <c r="B209" s="280" t="s">
         <v>115</v>
       </c>
-      <c r="C209" s="221"/>
-      <c r="D209" s="221"/>
-      <c r="E209" s="221"/>
-      <c r="F209" s="221"/>
-      <c r="G209" s="221"/>
-      <c r="H209" s="221"/>
-      <c r="I209" s="221"/>
-      <c r="J209" s="221"/>
-      <c r="K209" s="287"/>
-      <c r="L209" s="288">
+      <c r="C209" s="223"/>
+      <c r="D209" s="223"/>
+      <c r="E209" s="223"/>
+      <c r="F209" s="223"/>
+      <c r="G209" s="223"/>
+      <c r="H209" s="223"/>
+      <c r="I209" s="223"/>
+      <c r="J209" s="223"/>
+      <c r="K209" s="289"/>
+      <c r="L209" s="290">
         <f>(L208^(1/5))-1</f>
         <v>0.195326717448861</v>
       </c>
@@ -6873,9 +6906,10 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="E36 D49" formulaRange="1"/>
+    <ignoredError sqref="D49 E36" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -7792,6 +7826,7 @@
     <mergeCell ref="A43:C43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -9879,6 +9914,7 @@
     <mergeCell ref="M64:O64"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -10635,6 +10671,7 @@
     <mergeCell ref="P22:Q22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -11588,6 +11625,7 @@
     <mergeCell ref="G2:I3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -12347,6 +12385,7 @@
     <mergeCell ref="M29:N29"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -13683,6 +13722,7 @@
     <mergeCell ref="A66:C66"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>